--- a/Calculo_Mosquera.xlsx
+++ b/Calculo_Mosquera.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cálculo de la nota</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -66,15 +69,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,21 +91,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +409,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,45 +419,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>87</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>(C3*7)/100</f>
         <v>6.09</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f>(C4*3)/100</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <f>(D3+D4)</f>
         <v>6.99</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D6">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6">
         <f>ROUND(D5,0)</f>
         <v>7</v>
       </c>
